--- a/Interactive-Evolution-SFX/misc/usability_tests.xlsx
+++ b/Interactive-Evolution-SFX/misc/usability_tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Documents\GitHub\Interactive-Evolution-SFX\Interactive-Evolution-SFX\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\GitHub\Interactive-Evolution-SFX\Interactive-Evolution-SFX\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF401D-8EEC-4573-B814-E80C6A929E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1E1388-1EBA-402C-AE41-52A3B96C25CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{6B71C8D2-8B59-4E8A-B33C-CB6BDDCBC799}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{6B71C8D2-8B59-4E8A-B33C-CB6BDDCBC799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,30 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>1.</t>
   </si>
@@ -106,13 +84,16 @@
     <t>What improvement would you like to see? (Optional)</t>
   </si>
   <si>
-    <t>Did you ever feel fatigued? (slow, uninteresting, etc.)</t>
+    <t>Was the starting point interesting?</t>
   </si>
   <si>
-    <t>Was the output interesting? Did the evolution feel progressive?</t>
+    <t>Did the tool feel intuitive and easy to use?</t>
   </si>
   <si>
-    <t>Was the starting point interesting?</t>
+    <t>Was the output interesting? Did the process feel progressive?</t>
+  </si>
+  <si>
+    <t>Could you imagine yourself ever using it for practical usage?</t>
   </si>
 </sst>
 </file>
@@ -153,7 +134,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,12 +144,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -215,46 +190,40 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,7 +243,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6ECBBF-BE3F-466F-BD29-360E07B16BBA}">
-  <dimension ref="A1:BD45"/>
+  <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -600,169 +569,188 @@
     <col min="51" max="54" width="12.85546875" style="2"/>
     <col min="55" max="55" width="12.85546875" style="2" customWidth="1"/>
     <col min="56" max="56" width="0.7109375" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="12.85546875" style="2"/>
+    <col min="57" max="57" width="12.85546875" style="2"/>
+    <col min="58" max="58" width="0.7109375" style="2" customWidth="1"/>
+    <col min="59" max="63" width="12.85546875" style="2"/>
+    <col min="64" max="64" width="0.7109375" style="2" customWidth="1"/>
+    <col min="65" max="16384" width="12.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="10" t="e" cm="1">
-        <f t="array" ref="S1">S1:AO16AAR1:#REF!</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-    </row>
-    <row r="2" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+    </row>
+    <row r="2" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="16" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="16" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="16" t="s">
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="16" t="s">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="16" t="s">
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="21" t="s">
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="10"/>
-    </row>
-    <row r="3" spans="1:56" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="13"/>
+    </row>
+    <row r="3" spans="1:64" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="14"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="10"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
@@ -770,75 +758,83 @@
       <c r="AE3" s="11"/>
       <c r="AF3" s="11"/>
       <c r="AG3" s="11"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="10"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="11"/>
       <c r="AY3" s="11"/>
       <c r="AZ3" s="11"/>
       <c r="BA3" s="11"/>
       <c r="BB3" s="11"/>
       <c r="BC3" s="11"/>
-      <c r="BD3" s="10"/>
-    </row>
-    <row r="4" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="13"/>
+      <c r="BI3" s="13"/>
+      <c r="BJ3" s="13"/>
+      <c r="BK3" s="13"/>
+      <c r="BL3" s="13"/>
+    </row>
+    <row r="4" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="13"/>
       <c r="AQ4" s="18"/>
       <c r="AR4" s="18"/>
       <c r="AS4" s="18"/>
@@ -846,59 +842,67 @@
       <c r="AU4" s="18"/>
       <c r="AV4" s="18"/>
       <c r="AW4" s="18"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="10"/>
-    </row>
-    <row r="5" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="21"/>
+      <c r="BH4" s="21"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
+      <c r="BK4" s="21"/>
+      <c r="BL4" s="13"/>
+    </row>
+    <row r="5" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="13"/>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="18"/>
       <c r="AS5" s="18"/>
@@ -906,59 +910,67 @@
       <c r="AU5" s="18"/>
       <c r="AV5" s="18"/>
       <c r="AW5" s="18"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="10"/>
-    </row>
-    <row r="6" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="21"/>
+      <c r="BH5" s="21"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="21"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="13"/>
+    </row>
+    <row r="6" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="13"/>
       <c r="AQ6" s="18"/>
       <c r="AR6" s="18"/>
       <c r="AS6" s="18"/>
@@ -966,59 +978,67 @@
       <c r="AU6" s="18"/>
       <c r="AV6" s="18"/>
       <c r="AW6" s="18"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="10"/>
-    </row>
-    <row r="7" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="13"/>
+    </row>
+    <row r="7" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="13"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="18"/>
       <c r="AS7" s="18"/>
@@ -1026,59 +1046,67 @@
       <c r="AU7" s="18"/>
       <c r="AV7" s="18"/>
       <c r="AW7" s="18"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="10"/>
-    </row>
-    <row r="8" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="13"/>
+    </row>
+    <row r="8" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="13"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="18"/>
       <c r="AS8" s="18"/>
@@ -1086,59 +1114,67 @@
       <c r="AU8" s="18"/>
       <c r="AV8" s="18"/>
       <c r="AW8" s="18"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="10"/>
-    </row>
-    <row r="9" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="13"/>
+    </row>
+    <row r="9" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="13"/>
       <c r="AQ9" s="18"/>
       <c r="AR9" s="18"/>
       <c r="AS9" s="18"/>
@@ -1146,59 +1182,67 @@
       <c r="AU9" s="18"/>
       <c r="AV9" s="18"/>
       <c r="AW9" s="18"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="10"/>
-    </row>
-    <row r="10" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="13"/>
+    </row>
+    <row r="10" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="13"/>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="18"/>
       <c r="AS10" s="18"/>
@@ -1206,59 +1250,67 @@
       <c r="AU10" s="18"/>
       <c r="AV10" s="18"/>
       <c r="AW10" s="18"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="10"/>
-    </row>
-    <row r="11" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="13"/>
+    </row>
+    <row r="11" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="13"/>
       <c r="AQ11" s="18"/>
       <c r="AR11" s="18"/>
       <c r="AS11" s="18"/>
@@ -1266,59 +1318,67 @@
       <c r="AU11" s="18"/>
       <c r="AV11" s="18"/>
       <c r="AW11" s="18"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="10"/>
-    </row>
-    <row r="12" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="13"/>
+    </row>
+    <row r="12" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="13"/>
       <c r="AQ12" s="18"/>
       <c r="AR12" s="18"/>
       <c r="AS12" s="18"/>
@@ -1326,59 +1386,67 @@
       <c r="AU12" s="18"/>
       <c r="AV12" s="18"/>
       <c r="AW12" s="18"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="10"/>
-    </row>
-    <row r="13" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="18"/>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="21"/>
+      <c r="BH12" s="21"/>
+      <c r="BI12" s="21"/>
+      <c r="BJ12" s="21"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="13"/>
+    </row>
+    <row r="13" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="13"/>
       <c r="AQ13" s="18"/>
       <c r="AR13" s="18"/>
       <c r="AS13" s="18"/>
@@ -1386,59 +1454,67 @@
       <c r="AU13" s="18"/>
       <c r="AV13" s="18"/>
       <c r="AW13" s="18"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="19"/>
-      <c r="BA13" s="19"/>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="10"/>
-    </row>
-    <row r="14" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="21"/>
+      <c r="BH13" s="21"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="21"/>
+      <c r="BK13" s="21"/>
+      <c r="BL13" s="13"/>
+    </row>
+    <row r="14" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="13"/>
       <c r="AQ14" s="18"/>
       <c r="AR14" s="18"/>
       <c r="AS14" s="18"/>
@@ -1446,59 +1522,67 @@
       <c r="AU14" s="18"/>
       <c r="AV14" s="18"/>
       <c r="AW14" s="18"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="19"/>
-      <c r="BA14" s="19"/>
-      <c r="BB14" s="19"/>
-      <c r="BC14" s="19"/>
-      <c r="BD14" s="10"/>
-    </row>
-    <row r="15" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="13"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="13"/>
+    </row>
+    <row r="15" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="13"/>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="18"/>
       <c r="AS15" s="18"/>
@@ -1506,76 +1590,92 @@
       <c r="AU15" s="18"/>
       <c r="AV15" s="18"/>
       <c r="AW15" s="18"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="19"/>
-      <c r="BD15" s="10"/>
-    </row>
-    <row r="16" spans="1:56" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18"/>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="13"/>
+      <c r="BG15" s="21"/>
+      <c r="BH15" s="21"/>
+      <c r="BI15" s="21"/>
+      <c r="BJ15" s="21"/>
+      <c r="BK15" s="21"/>
+      <c r="BL15" s="13"/>
+    </row>
+    <row r="16" spans="1:64" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="13"/>
+      <c r="BH16" s="13"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="13"/>
+      <c r="BL16" s="13"/>
     </row>
     <row r="17" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2820,101 +2920,114 @@
       <c r="AO45" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="K2:Q2"/>
+  <mergeCells count="107">
+    <mergeCell ref="BG14:BK14"/>
+    <mergeCell ref="BG15:BK15"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AQ5:AW5"/>
+    <mergeCell ref="AQ6:AW6"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AQ8:AW8"/>
+    <mergeCell ref="AQ9:AW9"/>
+    <mergeCell ref="AQ10:AW10"/>
+    <mergeCell ref="AQ11:AW11"/>
+    <mergeCell ref="AQ12:AW12"/>
+    <mergeCell ref="AQ13:AW13"/>
+    <mergeCell ref="AQ14:AW14"/>
+    <mergeCell ref="AQ15:AW15"/>
+    <mergeCell ref="AQ2:AW2"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BG10:BK10"/>
+    <mergeCell ref="BG11:BK11"/>
+    <mergeCell ref="BG12:BK12"/>
+    <mergeCell ref="BG13:BK13"/>
+    <mergeCell ref="BG4:BK4"/>
+    <mergeCell ref="BG5:BK5"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BG7:BK7"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="AI9:AO9"/>
+    <mergeCell ref="AI10:AO10"/>
     <mergeCell ref="S8:Y8"/>
     <mergeCell ref="AA13:AG13"/>
     <mergeCell ref="AA14:AG14"/>
     <mergeCell ref="AA15:AG15"/>
+    <mergeCell ref="AY12:BE12"/>
+    <mergeCell ref="AY13:BE13"/>
+    <mergeCell ref="AY14:BE14"/>
+    <mergeCell ref="AY15:BE15"/>
+    <mergeCell ref="AI11:AO11"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI13:AO13"/>
+    <mergeCell ref="AI14:AO14"/>
+    <mergeCell ref="AI15:AO15"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AI6:AO6"/>
+    <mergeCell ref="AI7:AO7"/>
+    <mergeCell ref="AI8:AO8"/>
     <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AA12:AG12"/>
+    <mergeCell ref="S12:Y12"/>
     <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="S11:Y11"/>
+    <mergeCell ref="S9:Y9"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="S15:Y15"/>
     <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="AA8:AG8"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="AY5:BE5"/>
+    <mergeCell ref="AY6:BE6"/>
+    <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="AY8:BE8"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="AI14:AO14"/>
-    <mergeCell ref="AI15:AO15"/>
-    <mergeCell ref="AY4:BC4"/>
-    <mergeCell ref="AY5:BC5"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="AY7:BC7"/>
-    <mergeCell ref="AY8:BC8"/>
-    <mergeCell ref="AY9:BC9"/>
-    <mergeCell ref="AY10:BC10"/>
-    <mergeCell ref="AY11:BC11"/>
-    <mergeCell ref="AY12:BC12"/>
-    <mergeCell ref="AY13:BC13"/>
-    <mergeCell ref="AY14:BC14"/>
-    <mergeCell ref="AY15:BC15"/>
-    <mergeCell ref="AI9:AO9"/>
-    <mergeCell ref="AI10:AO10"/>
-    <mergeCell ref="AI11:AO11"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI13:AO13"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AI6:AO6"/>
-    <mergeCell ref="AI7:AO7"/>
-    <mergeCell ref="AI8:AO8"/>
-    <mergeCell ref="AQ11:AW11"/>
-    <mergeCell ref="AQ12:AW12"/>
-    <mergeCell ref="AQ13:AW13"/>
-    <mergeCell ref="AQ14:AW14"/>
-    <mergeCell ref="AQ15:AW15"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AQ5:AW5"/>
-    <mergeCell ref="AQ6:AW6"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AQ8:AW8"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="S11:Y11"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AA12:AG12"/>
-    <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="S2:Y2"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="AA4:AG4"/>
     <mergeCell ref="AA5:AG5"/>
     <mergeCell ref="AA6:AG6"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="AA8:AG8"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="AQ10:AW10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="AA4:AG4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Interactive-Evolution-SFX/misc/usability_tests.xlsx
+++ b/Interactive-Evolution-SFX/misc/usability_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\GitHub\Interactive-Evolution-SFX\Interactive-Evolution-SFX\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1E1388-1EBA-402C-AE41-52A3B96C25CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DDAA7-6321-4397-908F-9B219D25C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{6B71C8D2-8B59-4E8A-B33C-CB6BDDCBC799}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6B71C8D2-8B59-4E8A-B33C-CB6BDDCBC799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>1.</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Could you imagine yourself ever using it for practical usage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uses play button on sfx directly in start,  does not interact with other blue buttons,  selects many models to use, does not show next/prev subsets often, discovered the buttons after some time, does not use keyboard, prefers to listen individually,  </t>
   </si>
 </sst>
 </file>
@@ -204,25 +207,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6ECBBF-BE3F-466F-BD29-360E07B16BBA}">
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2:AW2"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -577,7 +580,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
+      <c r="A1" s="17"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -643,77 +646,77 @@
       <c r="BL1" s="13"/>
     </row>
     <row r="2" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
       <c r="Z2" s="10"/>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
       <c r="AH2" s="11"/>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
       <c r="AP2" s="13"/>
-      <c r="AQ2" s="15" t="s">
+      <c r="AQ2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
       <c r="AX2" s="11"/>
-      <c r="AY2" s="15" t="s">
+      <c r="AY2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
-      <c r="BE2" s="15"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
       <c r="BF2" s="13"/>
       <c r="BG2" s="16" t="s">
         <v>12</v>
@@ -725,7 +728,7 @@
       <c r="BL2" s="13"/>
     </row>
     <row r="3" spans="1:64" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -735,13 +738,13 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
@@ -795,67 +798,69 @@
         <v>0</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
       <c r="Z4" s="10"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
       <c r="AP4" s="13"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
       <c r="AX4" s="11"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="18"/>
-      <c r="BB4" s="18"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18"/>
-      <c r="BE4" s="18"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
       <c r="BF4" s="13"/>
-      <c r="BG4" s="21"/>
-      <c r="BH4" s="21"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="21"/>
-      <c r="BK4" s="21"/>
+      <c r="BG4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
       <c r="BL4" s="13"/>
     </row>
     <row r="5" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -863,67 +868,67 @@
         <v>1</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
       <c r="Z5" s="10"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
       <c r="AH5" s="11"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
       <c r="AP5" s="13"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="18"/>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="18"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
       <c r="AX5" s="11"/>
-      <c r="AY5" s="18"/>
-      <c r="AZ5" s="18"/>
-      <c r="BA5" s="18"/>
-      <c r="BB5" s="18"/>
-      <c r="BC5" s="18"/>
-      <c r="BD5" s="18"/>
-      <c r="BE5" s="18"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
+      <c r="BA5" s="17"/>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="17"/>
+      <c r="BD5" s="17"/>
+      <c r="BE5" s="17"/>
       <c r="BF5" s="13"/>
-      <c r="BG5" s="21"/>
-      <c r="BH5" s="21"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="21"/>
-      <c r="BK5" s="21"/>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
       <c r="BL5" s="13"/>
     </row>
     <row r="6" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -931,67 +936,67 @@
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
       <c r="Z6" s="10"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
       <c r="AP6" s="13"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="18"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
       <c r="AX6" s="11"/>
-      <c r="AY6" s="18"/>
-      <c r="AZ6" s="18"/>
-      <c r="BA6" s="18"/>
-      <c r="BB6" s="18"/>
-      <c r="BC6" s="18"/>
-      <c r="BD6" s="18"/>
-      <c r="BE6" s="18"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17"/>
+      <c r="BE6" s="17"/>
       <c r="BF6" s="13"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
       <c r="BL6" s="13"/>
     </row>
     <row r="7" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -999,67 +1004,67 @@
         <v>3</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="10"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
       <c r="AH7" s="11"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
       <c r="AP7" s="13"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
       <c r="AX7" s="11"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="18"/>
-      <c r="BA7" s="18"/>
-      <c r="BB7" s="18"/>
-      <c r="BC7" s="18"/>
-      <c r="BD7" s="18"/>
-      <c r="BE7" s="18"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="17"/>
+      <c r="BD7" s="17"/>
+      <c r="BE7" s="17"/>
       <c r="BF7" s="13"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
       <c r="BL7" s="13"/>
     </row>
     <row r="8" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,67 +1072,67 @@
         <v>4</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
       <c r="Z8" s="10"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="11"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="13"/>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="18"/>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="18"/>
-      <c r="AW8" s="18"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
       <c r="AX8" s="11"/>
-      <c r="AY8" s="18"/>
-      <c r="AZ8" s="18"/>
-      <c r="BA8" s="18"/>
-      <c r="BB8" s="18"/>
-      <c r="BC8" s="18"/>
-      <c r="BD8" s="18"/>
-      <c r="BE8" s="18"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="17"/>
       <c r="BF8" s="13"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="21"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
       <c r="BL8" s="13"/>
     </row>
     <row r="9" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,67 +1140,67 @@
         <v>5</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
       <c r="Z9" s="10"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
       <c r="AH9" s="11"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
       <c r="AP9" s="13"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
       <c r="AX9" s="11"/>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18"/>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
       <c r="BF9" s="13"/>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
-      <c r="BK9" s="21"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
       <c r="BL9" s="13"/>
     </row>
     <row r="10" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1203,67 +1208,67 @@
         <v>6</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
       <c r="Z10" s="10"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
       <c r="AH10" s="11"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
       <c r="AP10" s="13"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
       <c r="AX10" s="11"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="18"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="17"/>
+      <c r="BD10" s="17"/>
+      <c r="BE10" s="17"/>
       <c r="BF10" s="13"/>
-      <c r="BG10" s="21"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
       <c r="BL10" s="13"/>
     </row>
     <row r="11" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,67 +1276,67 @@
         <v>8</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
       <c r="Z11" s="10"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
       <c r="AH11" s="11"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
       <c r="AP11" s="13"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="18"/>
-      <c r="AW11" s="18"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
       <c r="AX11" s="11"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="18"/>
-      <c r="BA11" s="18"/>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="18"/>
-      <c r="BD11" s="18"/>
-      <c r="BE11" s="18"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="17"/>
       <c r="BF11" s="13"/>
-      <c r="BG11" s="21"/>
-      <c r="BH11" s="21"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="21"/>
-      <c r="BK11" s="21"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
       <c r="BL11" s="13"/>
     </row>
     <row r="12" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1339,67 +1344,67 @@
         <v>7</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
       <c r="Z12" s="10"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
       <c r="AH12" s="11"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
       <c r="AP12" s="13"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="18"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
       <c r="AX12" s="11"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="18"/>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="18"/>
-      <c r="BD12" s="18"/>
-      <c r="BE12" s="18"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="17"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="17"/>
+      <c r="BD12" s="17"/>
+      <c r="BE12" s="17"/>
       <c r="BF12" s="13"/>
-      <c r="BG12" s="21"/>
-      <c r="BH12" s="21"/>
-      <c r="BI12" s="21"/>
-      <c r="BJ12" s="21"/>
-      <c r="BK12" s="21"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
       <c r="BL12" s="13"/>
     </row>
     <row r="13" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1407,67 +1412,67 @@
         <v>9</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
       <c r="Z13" s="10"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="11"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="13"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
-      <c r="AS13" s="18"/>
-      <c r="AT13" s="18"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="18"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
       <c r="AX13" s="11"/>
-      <c r="AY13" s="18"/>
-      <c r="AZ13" s="18"/>
-      <c r="BA13" s="18"/>
-      <c r="BB13" s="18"/>
-      <c r="BC13" s="18"/>
-      <c r="BD13" s="18"/>
-      <c r="BE13" s="18"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="17"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="17"/>
+      <c r="BD13" s="17"/>
+      <c r="BE13" s="17"/>
       <c r="BF13" s="13"/>
-      <c r="BG13" s="21"/>
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21"/>
-      <c r="BK13" s="21"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
       <c r="BL13" s="13"/>
     </row>
     <row r="14" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,67 +1480,67 @@
         <v>10</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
       <c r="Z14" s="10"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
       <c r="AH14" s="11"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
       <c r="AP14" s="13"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="18"/>
-      <c r="AS14" s="18"/>
-      <c r="AT14" s="18"/>
-      <c r="AU14" s="18"/>
-      <c r="AV14" s="18"/>
-      <c r="AW14" s="18"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="17"/>
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
       <c r="AX14" s="11"/>
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="18"/>
-      <c r="BA14" s="18"/>
-      <c r="BB14" s="18"/>
-      <c r="BC14" s="18"/>
-      <c r="BD14" s="18"/>
-      <c r="BE14" s="18"/>
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="17"/>
+      <c r="BA14" s="17"/>
+      <c r="BB14" s="17"/>
+      <c r="BC14" s="17"/>
+      <c r="BD14" s="17"/>
+      <c r="BE14" s="17"/>
       <c r="BF14" s="13"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="21"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
       <c r="BL14" s="13"/>
     </row>
     <row r="15" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,67 +1548,67 @@
         <v>11</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
       <c r="Z15" s="10"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
       <c r="AH15" s="11"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
       <c r="AP15" s="13"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="18"/>
-      <c r="AS15" s="18"/>
-      <c r="AT15" s="18"/>
-      <c r="AU15" s="18"/>
-      <c r="AV15" s="18"/>
-      <c r="AW15" s="18"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
       <c r="AX15" s="11"/>
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="18"/>
-      <c r="BA15" s="18"/>
-      <c r="BB15" s="18"/>
-      <c r="BC15" s="18"/>
-      <c r="BD15" s="18"/>
-      <c r="BE15" s="18"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="17"/>
+      <c r="BD15" s="17"/>
+      <c r="BE15" s="17"/>
       <c r="BF15" s="13"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
       <c r="BL15" s="13"/>
     </row>
     <row r="16" spans="1:64" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1617,13 +1622,13 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
@@ -2921,6 +2926,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="AA8:AG8"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="AY5:BE5"/>
+    <mergeCell ref="AY6:BE6"/>
+    <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="AY8:BE8"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="AA5:AG5"/>
+    <mergeCell ref="AA6:AG6"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AA12:AG12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="S11:Y11"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AI6:AO6"/>
+    <mergeCell ref="AI7:AO7"/>
+    <mergeCell ref="AI8:AO8"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="BG7:BK7"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="AI9:AO9"/>
+    <mergeCell ref="AI10:AO10"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="AA13:AG13"/>
+    <mergeCell ref="AA14:AG14"/>
+    <mergeCell ref="AA15:AG15"/>
+    <mergeCell ref="AY12:BE12"/>
+    <mergeCell ref="AY13:BE13"/>
+    <mergeCell ref="AY14:BE14"/>
+    <mergeCell ref="AY15:BE15"/>
+    <mergeCell ref="AI11:AO11"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI13:AO13"/>
+    <mergeCell ref="AI14:AO14"/>
+    <mergeCell ref="AI15:AO15"/>
     <mergeCell ref="BG14:BK14"/>
     <mergeCell ref="BG15:BK15"/>
     <mergeCell ref="BG2:BK2"/>
@@ -2945,89 +3033,6 @@
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="BG5:BK5"/>
     <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BG7:BK7"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="AI9:AO9"/>
-    <mergeCell ref="AI10:AO10"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="AA13:AG13"/>
-    <mergeCell ref="AA14:AG14"/>
-    <mergeCell ref="AA15:AG15"/>
-    <mergeCell ref="AY12:BE12"/>
-    <mergeCell ref="AY13:BE13"/>
-    <mergeCell ref="AY14:BE14"/>
-    <mergeCell ref="AY15:BE15"/>
-    <mergeCell ref="AI11:AO11"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI13:AO13"/>
-    <mergeCell ref="AI14:AO14"/>
-    <mergeCell ref="AI15:AO15"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AI6:AO6"/>
-    <mergeCell ref="AI7:AO7"/>
-    <mergeCell ref="AI8:AO8"/>
-    <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AA12:AG12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="S11:Y11"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="AA8:AG8"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="AY5:BE5"/>
-    <mergeCell ref="AY6:BE6"/>
-    <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="AY8:BE8"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="AA5:AG5"/>
-    <mergeCell ref="AA6:AG6"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="S2:Y2"/>
-    <mergeCell ref="AA4:AG4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Interactive-Evolution-SFX/misc/usability_tests.xlsx
+++ b/Interactive-Evolution-SFX/misc/usability_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\GitHub\Interactive-Evolution-SFX\Interactive-Evolution-SFX\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DDAA7-6321-4397-908F-9B219D25C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1BB4F7-1849-44A5-92B6-2D79E553BEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6B71C8D2-8B59-4E8A-B33C-CB6BDDCBC799}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>1.</t>
   </si>
@@ -90,13 +90,16 @@
     <t>Did the tool feel intuitive and easy to use?</t>
   </si>
   <si>
-    <t>Was the output interesting? Did the process feel progressive?</t>
-  </si>
-  <si>
     <t>Could you imagine yourself ever using it for practical usage?</t>
   </si>
   <si>
     <t xml:space="preserve">uses play button on sfx directly in start,  does not interact with other blue buttons,  selects many models to use, does not show next/prev subsets often, discovered the buttons after some time, does not use keyboard, prefers to listen individually,  </t>
+  </si>
+  <si>
+    <t>ignores help, plays individually at first, then tries play, tried some of the buttons, fast to be satisfied, browse a lot, looks at the shape of sounds instead of listens</t>
+  </si>
+  <si>
+    <t>Was the output interesting? Did the process feel progressive? (Slow, bored?)</t>
   </si>
 </sst>
 </file>
@@ -544,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6ECBBF-BE3F-466F-BD29-360E07B16BBA}">
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14:Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -659,7 +662,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="1"/>
       <c r="K2" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -699,7 +702,7 @@
       <c r="AO2" s="18"/>
       <c r="AP2" s="13"/>
       <c r="AQ2" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR2" s="17"/>
       <c r="AS2" s="17"/>
@@ -855,7 +858,7 @@
       <c r="BE4" s="17"/>
       <c r="BF4" s="13"/>
       <c r="BG4" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BH4" s="15"/>
       <c r="BI4" s="15"/>
@@ -924,7 +927,9 @@
       <c r="BD5" s="17"/>
       <c r="BE5" s="17"/>
       <c r="BF5" s="13"/>
-      <c r="BG5" s="15"/>
+      <c r="BG5" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BH5" s="15"/>
       <c r="BI5" s="15"/>
       <c r="BJ5" s="15"/>
@@ -2948,9 +2953,6 @@
     <mergeCell ref="AA5:AG5"/>
     <mergeCell ref="AA6:AG6"/>
     <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="AA9:AG9"/>
     <mergeCell ref="AA10:AG10"/>
@@ -2969,6 +2971,22 @@
     <mergeCell ref="K13:Q13"/>
     <mergeCell ref="K14:Q14"/>
     <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="BG14:BK14"/>
+    <mergeCell ref="BG15:BK15"/>
+    <mergeCell ref="AQ12:AW12"/>
+    <mergeCell ref="AQ13:AW13"/>
+    <mergeCell ref="AQ14:AW14"/>
+    <mergeCell ref="AQ15:AW15"/>
+    <mergeCell ref="BG12:BK12"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="K3:Q3"/>
@@ -2986,14 +3004,6 @@
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="S2:Y2"/>
-    <mergeCell ref="BG7:BK7"/>
-    <mergeCell ref="BG8:BK8"/>
     <mergeCell ref="AI9:AO9"/>
     <mergeCell ref="AI10:AO10"/>
     <mergeCell ref="S8:Y8"/>
@@ -3009,8 +3019,10 @@
     <mergeCell ref="AI13:AO13"/>
     <mergeCell ref="AI14:AO14"/>
     <mergeCell ref="AI15:AO15"/>
-    <mergeCell ref="BG14:BK14"/>
-    <mergeCell ref="BG15:BK15"/>
+    <mergeCell ref="BG13:BK13"/>
+    <mergeCell ref="BG4:BK4"/>
+    <mergeCell ref="BG5:BK5"/>
+    <mergeCell ref="BG6:BK6"/>
     <mergeCell ref="BG2:BK2"/>
     <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="AQ5:AW5"/>
@@ -3020,19 +3032,12 @@
     <mergeCell ref="AQ9:AW9"/>
     <mergeCell ref="AQ10:AW10"/>
     <mergeCell ref="AQ11:AW11"/>
-    <mergeCell ref="AQ12:AW12"/>
-    <mergeCell ref="AQ13:AW13"/>
-    <mergeCell ref="AQ14:AW14"/>
-    <mergeCell ref="AQ15:AW15"/>
     <mergeCell ref="AQ2:AW2"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BG10:BK10"/>
     <mergeCell ref="BG11:BK11"/>
-    <mergeCell ref="BG12:BK12"/>
-    <mergeCell ref="BG13:BK13"/>
-    <mergeCell ref="BG4:BK4"/>
-    <mergeCell ref="BG5:BK5"/>
-    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BG7:BK7"/>
+    <mergeCell ref="BG8:BK8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
